--- a/biology/Botanique/Aubregrinia/Aubregrinia.xlsx
+++ b/biology/Botanique/Aubregrinia/Aubregrinia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aubregrinia est un genre de plantes à fleurs de la famille des Sapotaceae. Ce genre ne compte qu'une seule espèce : Aubregrinia taiensis, un arbre endémique à la Côte d'Ivoire et au Ghana, en danger critique d'extinction. 
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de genre Aubregrinia est une sorte de mot valise latinisé basé sur le nom des deux botanistes français qui contribuèrent ensemble à la description de la plante, Aubréville  (Aubre) et Pellegrin (grin)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de genre Aubregrinia est une sorte de mot valise latinisé basé sur le nom des deux botanistes français qui contribuèrent ensemble à la description de la plante, Aubréville  (Aubre) et Pellegrin (grin).
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Endotricha taiensis Aubrév. &amp; Pellegr., Bull. Soc. Bot. France 81: 795 (1934 publ. 1935).
 Pouteria taiensis (Aubrév. &amp; Pellegr.) Baehni, Boissiera 11: 58 (1965).</t>
@@ -574,6 +590,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -599,7 +617,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce grand arbre n'est connu en Côte d'Ivoire que dans le Parc national de Taï ou ne subsiste qu'une petite population.
 </t>
